--- a/testdata/tdata.xlsx
+++ b/testdata/tdata.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>hi</t>
   </si>
   <si>
     <t>hello</t>
   </si>
+  <si>
+    <t>Hello World</t>
+  </si>
 </sst>
 </file>
 
@@ -33,11 +32,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,11 +343,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -363,4 +362,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>